--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261464.552224897</v>
+        <v>-1264322.335701706</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>219.6382886189852</v>
       </c>
       <c r="F2" t="n">
-        <v>219.6382886189845</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189852</v>
       </c>
       <c r="H2" t="n">
-        <v>219.6382886189845</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.384542125181525</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>189.0728624904199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>186.5813588738907</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>219.6382886189852</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.104329683195</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>148.6658071658275</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.1699335451093</v>
       </c>
       <c r="U3" t="n">
-        <v>219.6382886189845</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.1908598010705</v>
+        <v>12.87050826922561</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.2406825650856</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.952086202219</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>141.5825027133754</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6382886189845</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>219.6382886189845</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>161.520684615001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.4450108596164</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.64024110952486</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -1029,16 +1029,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>86.75210827336615</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>132.9835212871651</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>159.1405122308235</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.5850280614163</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>272.0092591562312</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.0050813949528</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>189.2846404984108</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>134.036761643845</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>122.6028762599942</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>13.03790159951861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>95.81917536083746</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.3722919560001</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>30.40549967255511</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>53.26309598425066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.464366564012</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>124.0908577194979</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3320,10 +3320,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3727,7 +3727,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600558</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4028,10 +4028,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.1416346621992</v>
+        <v>468.2302782205106</v>
       </c>
       <c r="C2" t="n">
-        <v>683.1416346621992</v>
+        <v>468.2302782205106</v>
       </c>
       <c r="D2" t="n">
-        <v>683.1416346621992</v>
+        <v>468.2302782205106</v>
       </c>
       <c r="E2" t="n">
-        <v>683.1416346621992</v>
+        <v>246.3734210296165</v>
       </c>
       <c r="F2" t="n">
-        <v>461.2847774713057</v>
+        <v>239.427920280413</v>
       </c>
       <c r="G2" t="n">
-        <v>239.4279202804122</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="H2" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="I2" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="J2" t="n">
-        <v>32.94041018157986</v>
+        <v>32.94041018158043</v>
       </c>
       <c r="K2" t="n">
-        <v>106.7135956263292</v>
+        <v>106.7135956263302</v>
       </c>
       <c r="L2" t="n">
-        <v>235.1375174997732</v>
+        <v>235.1375174997747</v>
       </c>
       <c r="M2" t="n">
-        <v>409.7033126687002</v>
+        <v>409.703312668702</v>
       </c>
       <c r="N2" t="n">
-        <v>591.7075732852132</v>
+        <v>591.7075732852156</v>
       </c>
       <c r="O2" t="n">
-        <v>750.2337743047303</v>
+        <v>750.2337743047328</v>
       </c>
       <c r="P2" t="n">
-        <v>851.0312183826496</v>
+        <v>851.0312183826521</v>
       </c>
       <c r="Q2" t="n">
-        <v>878.5531544759381</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="R2" t="n">
-        <v>874.1243240464618</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="S2" t="n">
-        <v>874.1243240464618</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="T2" t="n">
-        <v>683.1416346621992</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="U2" t="n">
-        <v>683.1416346621992</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="V2" t="n">
-        <v>683.1416346621992</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="W2" t="n">
-        <v>683.1416346621992</v>
+        <v>690.0871354114048</v>
       </c>
       <c r="X2" t="n">
-        <v>683.1416346621992</v>
+        <v>690.0871354114048</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.1416346621992</v>
+        <v>468.2302782205106</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.0501839816349</v>
+        <v>500.1959570373526</v>
       </c>
       <c r="C3" t="n">
-        <v>155.0501839816349</v>
+        <v>325.7429277562256</v>
       </c>
       <c r="D3" t="n">
-        <v>155.0501839816349</v>
+        <v>176.8085180949743</v>
       </c>
       <c r="E3" t="n">
-        <v>155.0501839816349</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="F3" t="n">
-        <v>155.0501839816349</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="G3" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="H3" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="I3" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="J3" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="K3" t="n">
-        <v>119.8186583493621</v>
+        <v>79.20862533481383</v>
       </c>
       <c r="L3" t="n">
-        <v>249.0205084909443</v>
+        <v>208.4104754763963</v>
       </c>
       <c r="M3" t="n">
-        <v>419.1498417208661</v>
+        <v>378.5398087063185</v>
       </c>
       <c r="N3" t="n">
-        <v>608.1906370815007</v>
+        <v>567.5806040669534</v>
       </c>
       <c r="O3" t="n">
-        <v>758.9062375206493</v>
+        <v>718.2962045061023</v>
       </c>
       <c r="P3" t="n">
-        <v>860.535727951835</v>
+        <v>819.9256949372883</v>
       </c>
       <c r="Q3" t="n">
-        <v>878.5531544759381</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="R3" t="n">
-        <v>878.5531544759381</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="S3" t="n">
-        <v>728.3856724902537</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="T3" t="n">
-        <v>728.3856724902537</v>
+        <v>681.4118074606789</v>
       </c>
       <c r="U3" t="n">
-        <v>506.5288152993602</v>
+        <v>681.4118074606789</v>
       </c>
       <c r="V3" t="n">
-        <v>506.5288152993602</v>
+        <v>681.4118074606789</v>
       </c>
       <c r="W3" t="n">
-        <v>506.5288152993602</v>
+        <v>681.4118074606789</v>
       </c>
       <c r="X3" t="n">
-        <v>298.6773150938274</v>
+        <v>681.4118074606789</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.0501839816349</v>
+        <v>668.4112940574207</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312.3741041698222</v>
+        <v>333.0994814987615</v>
       </c>
       <c r="C4" t="n">
-        <v>312.3741041698222</v>
+        <v>333.0994814987615</v>
       </c>
       <c r="D4" t="n">
-        <v>312.3741041698222</v>
+        <v>333.0994814987615</v>
       </c>
       <c r="E4" t="n">
-        <v>164.4610105874291</v>
+        <v>333.0994814987615</v>
       </c>
       <c r="F4" t="n">
-        <v>17.57106308951876</v>
+        <v>186.2095340008511</v>
       </c>
       <c r="G4" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="H4" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="I4" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="J4" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="K4" t="n">
-        <v>115.0177570125929</v>
+        <v>17.57106308951882</v>
       </c>
       <c r="L4" t="n">
-        <v>295.2424101146124</v>
+        <v>197.7957161915385</v>
       </c>
       <c r="M4" t="n">
-        <v>495.6531605442156</v>
+        <v>398.2064666211418</v>
       </c>
       <c r="N4" t="n">
-        <v>696.7332076905082</v>
+        <v>599.2865137674346</v>
       </c>
       <c r="O4" t="n">
-        <v>866.4468814643508</v>
+        <v>769.0001875412773</v>
       </c>
       <c r="P4" t="n">
-        <v>877.730373535995</v>
+        <v>877.7303735359977</v>
       </c>
       <c r="Q4" t="n">
-        <v>878.5531544759381</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="R4" t="n">
-        <v>878.5531544759381</v>
+        <v>878.5531544759409</v>
       </c>
       <c r="S4" t="n">
-        <v>878.5531544759381</v>
+        <v>735.5405254725314</v>
       </c>
       <c r="T4" t="n">
-        <v>656.6962972850446</v>
+        <v>735.5405254725314</v>
       </c>
       <c r="U4" t="n">
-        <v>656.6962972850446</v>
+        <v>735.5405254725314</v>
       </c>
       <c r="V4" t="n">
-        <v>656.6962972850446</v>
+        <v>735.5405254725314</v>
       </c>
       <c r="W4" t="n">
-        <v>434.8394400941511</v>
+        <v>735.5405254725314</v>
       </c>
       <c r="X4" t="n">
-        <v>434.8394400941511</v>
+        <v>735.5405254725314</v>
       </c>
       <c r="Y4" t="n">
-        <v>434.8394400941511</v>
+        <v>514.7479463290013</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="C5" t="n">
-        <v>300.4385797407429</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="D5" t="n">
-        <v>300.4385797407429</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.7206499575934</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>574.0438072739748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.4937968510533</v>
+        <v>694.6220209084487</v>
       </c>
       <c r="C6" t="n">
-        <v>158.4937968510533</v>
+        <v>520.1689916273217</v>
       </c>
       <c r="D6" t="n">
-        <v>158.4937968510533</v>
+        <v>371.2345819660704</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313624</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>713.6562631339674</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>883.5948104606972</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1040.067397673171</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>891.4310992770111</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413019</v>
+        <v>694.6220209084487</v>
       </c>
       <c r="U6" t="n">
-        <v>481.2742972781153</v>
+        <v>694.6220209084487</v>
       </c>
       <c r="V6" t="n">
-        <v>246.1221890463726</v>
+        <v>694.6220209084487</v>
       </c>
       <c r="W6" t="n">
-        <v>246.1221890463726</v>
+        <v>694.6220209084487</v>
       </c>
       <c r="X6" t="n">
-        <v>158.4937968510533</v>
+        <v>694.6220209084487</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.4937968510533</v>
+        <v>694.6220209084487</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4695121254205</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4695121254205</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="D7" t="n">
-        <v>484.4695121254205</v>
+        <v>472.4828097622146</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>324.5697161798215</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>324.5697161798215</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>190.2429270008668</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>894.1075278536775</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>894.1075278536775</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U7" t="n">
-        <v>894.1075278536775</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="V7" t="n">
-        <v>894.1075278536775</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="W7" t="n">
-        <v>894.1075278536775</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="X7" t="n">
-        <v>666.1179769556602</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.1179769556602</v>
+        <v>622.5994491745504</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1077.003065952738</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>718.7373673459874</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>332.9491147477432</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>326.0036139985397</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.46096678957</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>607.1380332666174</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>970.4000522258375</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1357.685180822783</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.036292340028</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1440.481391392727</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1217.502910587462</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1217.502910587462</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>962.8184223815755</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W10" t="n">
-        <v>962.8184223815755</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="X10" t="n">
-        <v>734.8288714835581</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.036292340028</v>
+        <v>770.9577966591559</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832669</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510515</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510515</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304628</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958757</v>
+        <v>695.50206557031</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679688</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556331</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="E16" t="n">
-        <v>335.96291147324</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="F16" t="n">
-        <v>189.0729639753296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>189.0729639753296</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038363</v>
+        <v>435.7419440038335</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510511</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304624</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369646</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261154</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171305</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892237</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768879</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768879</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>342.9460855475331</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154069</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
         <v>402.7245934908939</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1090.48308855706</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.6905094135296</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,25 +6303,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6482,22 +6482,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2071.718244760802</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1782.643018104999</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1527.958529899112</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1238.541359862152</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>1010.551808964134</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.7592298206043</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6844,22 +6844,22 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,7 +7081,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,13 +7090,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7175,16 +7175,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7254,25 +7254,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7676,7 +7676,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>9.761584969221389</v>
+        <v>9.761584969221246</v>
       </c>
       <c r="K3" t="n">
-        <v>41.02023536823091</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>41.02023536823169</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>8.312762381951259</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>23.47606578260152</v>
+        <v>121.9070697453046</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>26.13373767211351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.25823202432753</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471577</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>162.2920814532766</v>
       </c>
       <c r="F2" t="n">
-        <v>187.2377571227269</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>193.3484148155429</v>
+        <v>193.3484148155422</v>
       </c>
       <c r="H2" t="n">
-        <v>96.11742946875989</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.384542125181355</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>23.88454788585159</v>
+        <v>212.9574103762715</v>
       </c>
       <c r="U2" t="n">
-        <v>66.65619413460344</v>
+        <v>196.734581755677</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>162.6596098435223</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>166.5996500370684</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.5912976168517</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.952086202219</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.9904679001442</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.90943397052115</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3.868393687181603</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>66.88470971760648</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>152.486236692746</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22.81817176293707</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>127.2568112467053</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>49.60187266209378</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0.1518463362687612</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>136.8413214260727</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>92.12028678808279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>93.31459260779033</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>211.1765892730637</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.293720896561331e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -26320,16 +26320,16 @@
         <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302513</v>
@@ -26338,7 +26338,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>628756.2786403508</v>
+        <v>628756.2786403517</v>
       </c>
       <c r="C3" t="n">
-        <v>48789.17030729425</v>
+        <v>48789.17030729352</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>57467.04038742559</v>
+        <v>57467.04038742576</v>
       </c>
       <c r="K3" t="n">
-        <v>11343.64680293677</v>
+        <v>11343.6468029366</v>
       </c>
       <c r="L3" t="n">
         <v>114810.3641312015</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184911.749256536</v>
+        <v>184911.7492565359</v>
       </c>
       <c r="C4" t="n">
         <v>253911.4645514929</v>
@@ -26424,7 +26424,7 @@
         <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
@@ -26433,7 +26433,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683046</v>
@@ -26442,22 +26442,22 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>20987.72340992391</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992392</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="O4" t="n">
         <v>20987.72340992392</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.72340992394</v>
+        <v>20987.72340992396</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59540.88175864921</v>
+        <v>59540.88175864927</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-720881.9828506465</v>
+        <v>-721242.0658663646</v>
       </c>
       <c r="C6" t="n">
-        <v>-181014.0398435895</v>
+        <v>-181014.0398435888</v>
       </c>
       <c r="D6" t="n">
-        <v>-443282.8320091435</v>
+        <v>-443282.8320091433</v>
       </c>
       <c r="E6" t="n">
-        <v>-439996.8506650325</v>
+        <v>-440031.5885904678</v>
       </c>
       <c r="F6" t="n">
-        <v>67488.59095951408</v>
+        <v>67453.85303407809</v>
       </c>
       <c r="G6" t="n">
-        <v>67488.59095951376</v>
+        <v>67453.85303407806</v>
       </c>
       <c r="H6" t="n">
-        <v>67488.59095951371</v>
+        <v>67453.85303407814</v>
       </c>
       <c r="I6" t="n">
-        <v>67488.59095951395</v>
+        <v>67453.85303407809</v>
       </c>
       <c r="J6" t="n">
-        <v>10021.55057208812</v>
+        <v>9986.812646652281</v>
       </c>
       <c r="K6" t="n">
-        <v>56144.94415657694</v>
+        <v>56110.20623114158</v>
       </c>
       <c r="L6" t="n">
-        <v>-54227.80517557721</v>
+        <v>-54227.80517557717</v>
       </c>
       <c r="M6" t="n">
-        <v>-72024.73477330252</v>
+        <v>-72024.73477330244</v>
       </c>
       <c r="N6" t="n">
-        <v>60582.55895562432</v>
+        <v>60582.55895562429</v>
       </c>
       <c r="O6" t="n">
         <v>60582.55895562429</v>
       </c>
       <c r="P6" t="n">
-        <v>60582.55895562431</v>
+        <v>60582.55895562425</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511443</v>
+        <v>576.113477551145</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189852</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511443</v>
+        <v>576.113477551145</v>
       </c>
       <c r="C3" t="n">
-        <v>37.94153621833391</v>
+        <v>37.94153621833334</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189852</v>
       </c>
       <c r="C4" t="n">
-        <v>44.07559138252162</v>
+        <v>44.07559138252097</v>
       </c>
       <c r="D4" t="n">
+        <v>376.8709520985327</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996095</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>219.6382886189852</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44.07559138252074</v>
+      </c>
+      <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
-      <c r="E4" t="n">
-        <v>532.1234559996099</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>219.6382886189845</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44.0755913825214</v>
-      </c>
-      <c r="L4" t="n">
-        <v>376.8709520985328</v>
-      </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189852</v>
       </c>
       <c r="K4" t="n">
-        <v>44.07559138252162</v>
+        <v>44.07559138252097</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.7557180877444</v>
       </c>
       <c r="I2" t="n">
-        <v>121.1869856777808</v>
+        <v>121.1869856777807</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.2434429743993</v>
+        <v>156.2434429743992</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>184.5041760467844</v>
+        <v>54.42578842571089</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.104329683195</v>
       </c>
       <c r="H3" t="n">
         <v>100.2675019952925</v>
       </c>
       <c r="I3" t="n">
-        <v>46.73162531578787</v>
+        <v>46.73162531578782</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.2195097355299</v>
+        <v>23.21950973552981</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>148.6658071658275</v>
       </c>
       <c r="T3" t="n">
-        <v>195.1699335451093</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>6.221567969884006</v>
+        <v>225.8598565888685</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>63.49183597623386</v>
+        <v>192.8121875080788</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.9904679001442</v>
       </c>
       <c r="I4" t="n">
-        <v>124.2081243741569</v>
+        <v>124.2081243741568</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>19.90943397052106</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.5809772793341</v>
+        <v>130.580977279334</v>
       </c>
       <c r="S4" t="n">
-        <v>205.9115236686847</v>
+        <v>64.32902095530923</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.5066823061661</v>
       </c>
       <c r="U4" t="n">
         <v>286.2623624570596</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>251.3134900307089</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.7929277964372</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>3.512283845752814</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>119.0208769301113</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>33.90014575138147</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>45.57865201277022</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>360.1488136020643</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>139.5384436167228</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6573789667846199</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>97.23835783818021</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5.643958230529666e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30040,10 +30040,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30748,10 +30748,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.316034080607614</v>
+        <v>2.316034080607616</v>
       </c>
       <c r="H2" t="n">
-        <v>23.71908402802273</v>
+        <v>23.71908402802276</v>
       </c>
       <c r="I2" t="n">
-        <v>89.28890389262511</v>
+        <v>89.28890389262521</v>
       </c>
       <c r="J2" t="n">
-        <v>196.5704975489706</v>
+        <v>196.5704975489709</v>
       </c>
       <c r="K2" t="n">
-        <v>294.608220181091</v>
+        <v>294.6082201810913</v>
       </c>
       <c r="L2" t="n">
-        <v>365.4875481754863</v>
+        <v>365.4875481754867</v>
       </c>
       <c r="M2" t="n">
-        <v>406.6753192564919</v>
+        <v>406.6753192564924</v>
       </c>
       <c r="N2" t="n">
-        <v>413.2557510880184</v>
+        <v>413.2557510880188</v>
       </c>
       <c r="O2" t="n">
-        <v>390.2256871989764</v>
+        <v>390.2256871989769</v>
       </c>
       <c r="P2" t="n">
-        <v>333.0485958339759</v>
+        <v>333.0485958339763</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.1056253222156</v>
+        <v>250.1056253222159</v>
       </c>
       <c r="R2" t="n">
-        <v>145.4845758159682</v>
+        <v>145.4845758159683</v>
       </c>
       <c r="S2" t="n">
-        <v>52.77662661184605</v>
+        <v>52.77662661184611</v>
       </c>
       <c r="T2" t="n">
-        <v>10.13843918785983</v>
+        <v>10.13843918785985</v>
       </c>
       <c r="U2" t="n">
-        <v>0.185282726448609</v>
+        <v>0.1852827264486093</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.239187480015669</v>
+        <v>1.239187480015671</v>
       </c>
       <c r="H3" t="n">
-        <v>11.96794224120396</v>
+        <v>11.96794224120398</v>
       </c>
       <c r="I3" t="n">
-        <v>42.6650075356272</v>
+        <v>42.66500753562725</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0760416974453</v>
+        <v>117.0760416974454</v>
       </c>
       <c r="K3" t="n">
-        <v>200.1016028584951</v>
+        <v>200.1016028584954</v>
       </c>
       <c r="L3" t="n">
-        <v>269.0612991148057</v>
+        <v>269.061299114806</v>
       </c>
       <c r="M3" t="n">
-        <v>313.9818452653736</v>
+        <v>313.981845265374</v>
       </c>
       <c r="N3" t="n">
-        <v>322.2920104274086</v>
+        <v>322.292010427409</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8342246860087</v>
+        <v>294.8342246860091</v>
       </c>
       <c r="P3" t="n">
-        <v>236.6304583549219</v>
+        <v>236.6304583549222</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.1811948174388</v>
+        <v>158.1811948174389</v>
       </c>
       <c r="R3" t="n">
-        <v>76.93832441711324</v>
+        <v>76.93832441711332</v>
       </c>
       <c r="S3" t="n">
-        <v>23.01736393801033</v>
+        <v>23.01736393801036</v>
       </c>
       <c r="T3" t="n">
-        <v>4.994795149712278</v>
+        <v>4.994795149712284</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08152549210629405</v>
+        <v>0.08152549210629415</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.038893156239768</v>
+        <v>1.03889315623977</v>
       </c>
       <c r="H4" t="n">
-        <v>9.236704607295401</v>
+        <v>9.236704607295414</v>
       </c>
       <c r="I4" t="n">
-        <v>31.24235055310141</v>
+        <v>31.24235055310145</v>
       </c>
       <c r="J4" t="n">
-        <v>73.44974614615163</v>
+        <v>73.44974614615171</v>
       </c>
       <c r="K4" t="n">
-        <v>120.700495788584</v>
+        <v>120.7004957885841</v>
       </c>
       <c r="L4" t="n">
-        <v>154.455078883138</v>
+        <v>154.4550788831381</v>
       </c>
       <c r="M4" t="n">
-        <v>162.851224482203</v>
+        <v>162.8512244822032</v>
       </c>
       <c r="N4" t="n">
-        <v>158.9789863544003</v>
+        <v>158.9789863544005</v>
       </c>
       <c r="O4" t="n">
-        <v>146.842825392872</v>
+        <v>146.8428253928722</v>
       </c>
       <c r="P4" t="n">
-        <v>125.6494050055807</v>
+        <v>125.6494050055808</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.99313511022279</v>
+        <v>86.99313511022289</v>
       </c>
       <c r="R4" t="n">
-        <v>46.71241409783539</v>
+        <v>46.71241409783545</v>
       </c>
       <c r="S4" t="n">
-        <v>18.10507436828759</v>
+        <v>18.10507436828761</v>
       </c>
       <c r="T4" t="n">
-        <v>4.438907122115372</v>
+        <v>4.438907122115378</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05666689943126016</v>
+        <v>0.05666689943126023</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>395.1848490935914</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>578.1083652167721</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>630.8026878560996</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,28 +33023,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>434.178635838203</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.52459302228434</v>
+        <v>15.52459302228459</v>
       </c>
       <c r="K2" t="n">
-        <v>74.51836913611044</v>
+        <v>74.51836913611078</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7211332054991</v>
+        <v>129.7211332054995</v>
       </c>
       <c r="M2" t="n">
-        <v>176.3290860292192</v>
+        <v>176.3290860292197</v>
       </c>
       <c r="N2" t="n">
-        <v>183.8426874914275</v>
+        <v>183.8426874914279</v>
       </c>
       <c r="O2" t="n">
-        <v>160.1274757772897</v>
+        <v>160.1274757772901</v>
       </c>
       <c r="P2" t="n">
-        <v>101.8156000787063</v>
+        <v>101.8156000787067</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.79993544776613</v>
+        <v>27.79993544776642</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>103.280399252367</v>
+        <v>62.26016388413638</v>
       </c>
       <c r="L3" t="n">
-        <v>130.5069193349315</v>
+        <v>130.5069193349318</v>
       </c>
       <c r="M3" t="n">
-        <v>171.8478113433553</v>
+        <v>171.8478113433557</v>
       </c>
       <c r="N3" t="n">
-        <v>190.9502983440753</v>
+        <v>190.9502983440757</v>
       </c>
       <c r="O3" t="n">
-        <v>152.2379802415643</v>
+        <v>152.2379802415646</v>
       </c>
       <c r="P3" t="n">
-        <v>102.6560509405917</v>
+        <v>102.656050940592</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.19942073141723</v>
+        <v>59.21965609964909</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>98.43100396270113</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>182.0451041434541</v>
+        <v>182.0451041434543</v>
       </c>
       <c r="M4" t="n">
-        <v>202.4351014440435</v>
+        <v>202.4351014440437</v>
       </c>
       <c r="N4" t="n">
-        <v>203.1111587336289</v>
+        <v>203.1111587336291</v>
       </c>
       <c r="O4" t="n">
-        <v>171.4279533069117</v>
+        <v>171.4279533069119</v>
       </c>
       <c r="P4" t="n">
-        <v>11.39746673903456</v>
+        <v>109.8284707017378</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8310918585284099</v>
+        <v>0.8310918585285094</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>144.3737377058545</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>311.9385926621778</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>622.4553810291982</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010509</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096369</v>
+        <v>264.3325884096341</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>253.0508151715731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>446.7666531334388</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>488.6686539340813</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>291.5823913937585</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
